--- a/7/cfrp2=3/7_cfrp2=3_SS.xlsx
+++ b/7/cfrp2=3/7_cfrp2=3_SS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/7/cfrp2=3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B91B5EE-D08C-A445-8049-764AD0E24E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A840FED-A224-154D-A03B-8BFDFD9BFCF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2421,6 +2421,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>7_c23_th1.58</a:t>
             </a:r>
           </a:p>
@@ -3123,6 +3124,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3156,6 +3158,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -3212,6 +3215,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -3344,6 +3348,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -3377,6 +3382,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -5829,7 +5835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -8878,7 +8884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G105"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
